--- a/Data/TestDataOnline.xlsx
+++ b/Data/TestDataOnline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79CD507-83A0-4A3A-B8A0-7B7CB5F61457}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8067BAE7-1F8C-4388-8F0B-406C21E022E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="33">
   <si>
     <t>santest1</t>
   </si>
@@ -99,12 +99,40 @@
   </si>
   <si>
     <t>james</t>
+  </si>
+  <si>
+    <t>Accept Charge €24.00</t>
+  </si>
+  <si>
+    <t>Accept Charge €16.00</t>
+  </si>
+  <si>
+    <t>Accept Charge €75.00</t>
+  </si>
+  <si>
+    <t>https://qa.cid.ie/CID/pdf/judgmentSearchPdf?num=41584274</t>
+  </si>
+  <si>
+    <t>Accept Charge €50.00</t>
+  </si>
+  <si>
+    <t>https://qa.cid.ie/CID/pdf/judgmentSearchPdf?num=55824262</t>
+  </si>
+  <si>
+    <t>https://qa.cid.ie/CID/pdf/judgmentSearchPdf?num=20248881</t>
+  </si>
+  <si>
+    <t>https://qa.cid.ie/CID/pdf/judgmentSearchPdf?num=68618300</t>
+  </si>
+  <si>
+    <t>https://qa.cid.ie/CID/pdf/judgmentSearchPdf?num=18820255</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,9 +452,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="42.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -491,10 +519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +552,9 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -544,6 +575,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -564,6 +598,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -590,6 +627,9 @@
       <c r="H4" t="s">
         <v>11</v>
       </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -615,6 +655,9 @@
       </c>
       <c r="H5" t="s">
         <v>14</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -626,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD30161-007E-4223-86DE-9AE20DFC9C74}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,10 +800,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79111210-2238-46E2-AD09-2D21B026AAD4}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +833,12 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -810,6 +859,12 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -830,6 +885,12 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
+      <c r="U3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -856,6 +917,12 @@
       <c r="H4" t="s">
         <v>11</v>
       </c>
+      <c r="U4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -881,6 +948,12 @@
       </c>
       <c r="H5" t="s">
         <v>14</v>
+      </c>
+      <c r="U5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -892,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AAA28F-E149-4BB4-9003-42A7DA96D8F9}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD9CC1-D03A-4EE9-B636-7F23C4EEFFA2}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V1" sqref="I1:V1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AADAC2B-23FF-4299-B688-314F3CA4002E}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/TestDataOnline.xlsx
+++ b/Data/TestDataOnline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8067BAE7-1F8C-4388-8F0B-406C21E022E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F93707F-9BC7-400C-BCCF-A3B29EA3E4C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="25">
   <si>
     <t>santest1</t>
   </si>
@@ -101,38 +101,13 @@
     <t>james</t>
   </si>
   <si>
-    <t>Accept Charge €24.00</t>
-  </si>
-  <si>
-    <t>Accept Charge €16.00</t>
-  </si>
-  <si>
-    <t>Accept Charge €75.00</t>
-  </si>
-  <si>
-    <t>https://qa.cid.ie/CID/pdf/judgmentSearchPdf?num=41584274</t>
-  </si>
-  <si>
-    <t>Accept Charge €50.00</t>
-  </si>
-  <si>
-    <t>https://qa.cid.ie/CID/pdf/judgmentSearchPdf?num=55824262</t>
-  </si>
-  <si>
-    <t>https://qa.cid.ie/CID/pdf/judgmentSearchPdf?num=20248881</t>
-  </si>
-  <si>
-    <t>https://qa.cid.ie/CID/pdf/judgmentSearchPdf?num=68618300</t>
-  </si>
-  <si>
-    <t>https://qa.cid.ie/CID/pdf/judgmentSearchPdf?num=18820255</t>
+    <t>ptsbjob</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,14 +425,14 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -479,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -490,7 +465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -501,7 +476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -514,20 +489,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="U1" sqref="I1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -552,11 +528,8 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -575,11 +548,8 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="U2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -598,11 +568,8 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="U3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -627,11 +594,8 @@
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -656,12 +620,10 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -670,12 +632,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -701,7 +663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -721,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -741,7 +703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -767,7 +729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -795,20 +757,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79111210-2238-46E2-AD09-2D21B026AAD4}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="V1" sqref="I1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -833,14 +796,8 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -859,14 +816,8 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -885,14 +836,8 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="U3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -917,14 +862,8 @@
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="U4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -949,15 +888,10 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="U5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -969,9 +903,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -997,7 +931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1091,6 +1025,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1098,13 +1033,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD9CC1-D03A-4EE9-B636-7F23C4EEFFA2}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1224,6 +1159,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1231,13 +1167,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AADAC2B-23FF-4299-B688-314F3CA4002E}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1263,7 +1199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1329,7 +1265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1357,6 +1293,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1364,18 +1301,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED90C7B-D280-4581-B008-7867090B17B5}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V1" sqref="I1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1396,12 +1333,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1416,12 +1353,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1436,12 +1373,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1462,12 +1399,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1490,5 +1427,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/TestDataOnline.xlsx
+++ b/Data/TestDataOnline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F93707F-9BC7-400C-BCCF-A3B29EA3E4C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCF3C89-FAA4-4E67-8A43-E56ABB43000D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="33">
   <si>
     <t>santest1</t>
   </si>
@@ -102,6 +102,30 @@
   </si>
   <si>
     <t>ptsbjob</t>
+  </si>
+  <si>
+    <t>walsh</t>
+  </si>
+  <si>
+    <t>murphy</t>
+  </si>
+  <si>
+    <t>kelly</t>
+  </si>
+  <si>
+    <t>brian</t>
+  </si>
+  <si>
+    <t>o'sullivan</t>
+  </si>
+  <si>
+    <t>michael</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>o'neill</t>
   </si>
 </sst>
 </file>
@@ -632,7 +656,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -671,16 +695,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -691,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -717,16 +741,16 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -737,13 +761,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1033,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD9CC1-D03A-4EE9-B636-7F23C4EEFFA2}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,15 +1189,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AADAC2B-23FF-4299-B688-314F3CA4002E}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -1199,7 +1223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1207,19 +1231,19 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1227,19 +1251,19 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1253,19 +1277,19 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1273,22 +1297,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1332,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="I1:V1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/TestDataOnline.xlsx
+++ b/Data/TestDataOnline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCF3C89-FAA4-4E67-8A43-E56ABB43000D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593B5260-ECB2-4680-9C6F-F1559BF06005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
   <si>
     <t>santest1</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>o'neill</t>
+  </si>
+  <si>
+    <t>santest6</t>
   </si>
 </sst>
 </file>
@@ -522,17 +525,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="I1:U1048576"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -555,10 +558,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -575,10 +578,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -595,10 +598,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -621,10 +624,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -656,17 +659,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -689,10 +692,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -709,10 +712,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -729,10 +732,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -755,10 +758,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -790,17 +793,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="I1:V1048576"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -823,10 +826,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -843,10 +846,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -863,10 +866,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -889,10 +892,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -924,17 +927,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -957,10 +960,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -977,10 +980,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -997,10 +1000,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1023,10 +1026,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1058,17 +1061,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1091,10 +1094,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1111,10 +1114,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1131,10 +1134,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1157,10 +1160,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1191,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AADAC2B-23FF-4299-B688-314F3CA4002E}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
@@ -1199,10 +1202,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1225,10 +1228,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -1245,10 +1248,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1265,10 +1268,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1291,10 +1294,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1331,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED90C7B-D280-4581-B008-7867090B17B5}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/Data/TestDataOnline.xlsx
+++ b/Data/TestDataOnline.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593B5260-ECB2-4680-9C6F-F1559BF06005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034DF795-CE09-490A-83B9-6F09C591314D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="35">
   <si>
     <t>santest1</t>
   </si>
@@ -101,9 +101,6 @@
     <t>james</t>
   </si>
   <si>
-    <t>ptsbjob</t>
-  </si>
-  <si>
     <t>walsh</t>
   </si>
   <si>
@@ -129,12 +126,19 @@
   </si>
   <si>
     <t>santest6</t>
+  </si>
+  <si>
+    <t>Accept Charge €75.00</t>
+  </si>
+  <si>
+    <t>https://qa.lawlink.ie/LawLink/pdf/judgmentSearchPdf?num=58645273</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,14 +453,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="42.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -525,17 +529,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -558,10 +562,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -578,10 +582,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -598,10 +602,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -624,10 +628,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -666,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -678,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -692,19 +696,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -712,16 +716,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -732,10 +736,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -744,13 +748,13 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -758,10 +762,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -770,7 +774,7 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -793,17 +797,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="V1" sqref="I1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -826,10 +830,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -846,10 +850,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -866,10 +870,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -892,10 +896,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -927,17 +931,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -960,10 +964,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -980,10 +984,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1000,10 +1004,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1026,10 +1030,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1068,10 +1072,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1094,10 +1098,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1114,10 +1118,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1134,10 +1138,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1160,10 +1164,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1195,17 +1199,17 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1214,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -1228,19 +1232,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -1248,16 +1252,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1268,10 +1272,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1280,13 +1284,13 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -1294,22 +1298,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1318,10 +1322,10 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1332,20 +1336,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED90C7B-D280-4581-B008-7867090B17B5}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1365,13 +1369,19 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1388,10 +1398,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1408,10 +1418,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1434,10 +1444,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>

--- a/Data/TestDataOnline.xlsx
+++ b/Data/TestDataOnline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034DF795-CE09-490A-83B9-6F09C591314D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB102CD-45EB-441D-8DE5-07E6CD9B5DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
   <si>
     <t>santest1</t>
   </si>
@@ -128,17 +128,13 @@
     <t>santest6</t>
   </si>
   <si>
-    <t>Accept Charge €75.00</t>
-  </si>
-  <si>
-    <t>https://qa.lawlink.ie/LawLink/pdf/judgmentSearchPdf?num=58645273</t>
+    <t>sanuat9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,9 +454,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="42.109375" collapsed="true"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -528,18 +524,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U1" sqref="I1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -562,10 +558,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -582,10 +578,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -602,10 +598,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -628,10 +624,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -662,18 +658,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD30161-007E-4223-86DE-9AE20DFC9C74}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -696,10 +690,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -716,10 +710,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -736,10 +730,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -762,10 +756,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -796,18 +790,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79111210-2238-46E2-AD09-2D21B026AAD4}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="I1:V1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -830,10 +822,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -850,10 +842,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -870,10 +862,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -896,10 +888,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -931,17 +923,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -964,10 +956,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -984,10 +976,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1004,10 +996,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1030,10 +1022,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1199,7 +1191,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,20 +1328,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED90C7B-D280-4581-B008-7867090B17B5}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1369,19 +1361,13 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1398,10 +1384,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1418,10 +1404,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1444,10 +1430,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>

--- a/Data/TestDataOnline.xlsx
+++ b/Data/TestDataOnline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB102CD-45EB-441D-8DE5-07E6CD9B5DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43454A1F-0CCD-4E4E-80B8-190E3FE5D8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="35">
   <si>
     <t>santest1</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>sanuat9</t>
+  </si>
+  <si>
+    <t>sanstg1</t>
   </si>
 </sst>
 </file>
@@ -524,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="I1:U1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,16 +793,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79111210-2238-46E2-AD09-2D21B026AAD4}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -822,10 +827,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -842,10 +847,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -862,10 +867,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -888,10 +893,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -922,18 +927,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AAA28F-E149-4BB4-9003-42A7DA96D8F9}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H9:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -956,10 +961,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -976,10 +981,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -996,10 +1001,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1022,10 +1027,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1057,17 +1062,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1090,10 +1095,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1110,10 +1115,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1130,10 +1135,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1156,10 +1161,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1191,7 +1196,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="V1" sqref="K1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,17 +1336,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="V1" sqref="I1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1364,10 +1369,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1384,10 +1389,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1404,10 +1409,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1430,10 +1435,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>

--- a/Data/TestDataOnline.xlsx
+++ b/Data/TestDataOnline.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43454A1F-0CCD-4E4E-80B8-190E3FE5D8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC412E88-D46A-4014-BA97-DFE9B17592C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="32">
   <si>
     <t>santest1</t>
   </si>
@@ -123,15 +123,6 @@
   </si>
   <si>
     <t>o'neill</t>
-  </si>
-  <si>
-    <t>santest6</t>
-  </si>
-  <si>
-    <t>sanuat9</t>
-  </si>
-  <si>
-    <t>sanstg1</t>
   </si>
 </sst>
 </file>
@@ -527,18 +518,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B0E35-2010-4DD0-A2D9-77380A65080C}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U1" sqref="I1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -561,10 +552,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -581,10 +572,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -601,10 +592,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -627,10 +618,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -661,16 +652,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD30161-007E-4223-86DE-9AE20DFC9C74}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -693,10 +686,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -713,10 +706,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -733,10 +726,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -759,10 +752,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -793,18 +786,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79111210-2238-46E2-AD09-2D21B026AAD4}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -827,10 +820,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -847,10 +840,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -867,10 +860,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -893,10 +886,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -927,18 +920,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AAA28F-E149-4BB4-9003-42A7DA96D8F9}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -961,10 +954,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -981,10 +974,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1001,10 +994,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1027,10 +1020,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1062,17 +1055,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1095,10 +1088,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1115,10 +1108,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1135,10 +1128,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1161,10 +1154,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1196,17 +1189,17 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="K1:V1048576"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1229,10 +1222,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1249,10 +1242,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1269,10 +1262,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1295,10 +1288,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1336,17 +1329,17 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="I1:V1048576"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1369,10 +1362,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1389,10 +1382,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1409,10 +1402,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1435,10 +1428,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
